--- a/output/fit_clients/fit_round_354.xlsx
+++ b/output/fit_clients/fit_round_354.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1668826316.189325</v>
+        <v>2498481463.97603</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1067475861737694</v>
+        <v>0.07435341856660595</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03394239718271513</v>
+        <v>0.0367171663757601</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>834413109.2537214</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1891161879.337586</v>
+        <v>1727429299.425203</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1731308981819848</v>
+        <v>0.1223489924865709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03653589353294659</v>
+        <v>0.04392300498873419</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>945580962.8859273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5135002114.857883</v>
+        <v>5112211014.094336</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1209027090138877</v>
+        <v>0.101339954094352</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02305003577741208</v>
+        <v>0.026045611465799</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>128</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2567501152.036226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3428118303.648197</v>
+        <v>4157478794.469239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09551741797776676</v>
+        <v>0.09975108727399651</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04959734525724632</v>
+        <v>0.04040141954286438</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1714059193.334674</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1921264479.188141</v>
+        <v>2644137732.255843</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1468827034149527</v>
+        <v>0.145609267985949</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04500800321166544</v>
+        <v>0.05294214352782608</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67</v>
-      </c>
-      <c r="J6" t="n">
-        <v>960632277.7217822</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2719164635.340654</v>
+        <v>2940573515.487519</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06746861048816444</v>
+        <v>0.07234062621506854</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03581902649435926</v>
+        <v>0.04763408811912967</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>110</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1359582309.592027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2847209010.117098</v>
+        <v>3519509799.550376</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1620868643163525</v>
+        <v>0.1590128538105383</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02167684497192505</v>
+        <v>0.02842306138600777</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>113</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1423604546.961361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2316958936.886732</v>
+        <v>2300496675.618824</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1819086762393733</v>
+        <v>0.1909874199285098</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0357437100982889</v>
+        <v>0.0246794496932074</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1158479451.082635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4452620860.552341</v>
+        <v>3804892988.885446</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1373924876822802</v>
+        <v>0.1380404656053978</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05328249925352163</v>
+        <v>0.04535948154330201</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>149</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2226310487.253491</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2678237165.464799</v>
+        <v>2945352295.272823</v>
       </c>
       <c r="F11" t="n">
-        <v>0.118019711422984</v>
+        <v>0.1297356070396798</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03124991630511076</v>
+        <v>0.0477929822488232</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>146</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1339118503.220335</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3136738284.19681</v>
+        <v>2702688220.882023</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1433253877636431</v>
+        <v>0.1588113482349261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04851477134725305</v>
+        <v>0.03935814264470384</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>121</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1568369172.652933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5194528678.985685</v>
+        <v>5341728513.26307</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08803149863612024</v>
+        <v>0.06457718001776716</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02337491773681446</v>
+        <v>0.02883871765465307</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>119</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2597264333.755459</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2885707542.792854</v>
+        <v>3454197411.017903</v>
       </c>
       <c r="F14" t="n">
-        <v>0.171701509811036</v>
+        <v>0.1201113311754137</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0373472386443405</v>
+        <v>0.03559168450863853</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>116</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1442853814.121601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1729019019.434854</v>
+        <v>1188821128.86187</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1016082035964885</v>
+        <v>0.0965087745815037</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04116664823422931</v>
+        <v>0.04370747288967267</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>864509647.1462095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2432339104.67019</v>
+        <v>1849410896.741365</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09071776796877494</v>
+        <v>0.08584883608112844</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04085869587593211</v>
+        <v>0.03866296851936995</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>71</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1216169589.203567</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3739189875.393813</v>
+        <v>4609118968.833798</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1712958172219803</v>
+        <v>0.1249578334661404</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04770288042492516</v>
+        <v>0.03949234238969436</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1869594985.20622</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3250072824.374313</v>
+        <v>2785404601.057459</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1158607246183041</v>
+        <v>0.1509089436912179</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02167419853637712</v>
+        <v>0.02141639752572724</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>116</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1625036424.402592</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1368236520.1372</v>
+        <v>892042119.3185391</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1156898054076066</v>
+        <v>0.1393928593397485</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02420720423062639</v>
+        <v>0.01823061170276353</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>684118378.9728972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2234093744.045889</v>
+        <v>2162248606.202359</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1258850853440287</v>
+        <v>0.1322350428444431</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02850358857421099</v>
+        <v>0.02938569481558177</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1117046873.442765</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2238274794.565111</v>
+        <v>1668695751.010407</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06789875771151109</v>
+        <v>0.09273151489973194</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03528420294045646</v>
+        <v>0.02827286474825393</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1119137410.470617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3217295609.373778</v>
+        <v>3273865753.040385</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1143682705724519</v>
+        <v>0.1444026489454096</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05006110478254416</v>
+        <v>0.04888858746223441</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1608647853.216819</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1193316956.171814</v>
+        <v>1111851285.600096</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1172885038882049</v>
+        <v>0.1699056185655013</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03447254113197789</v>
+        <v>0.05474795733330584</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>596658515.6990099</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3025914596.072722</v>
+        <v>3898466872.694273</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1377934633496624</v>
+        <v>0.1330621158268167</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0374184195643933</v>
+        <v>0.03020280149332985</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>103</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1512957331.53073</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1064013006.906847</v>
+        <v>1480513006.946991</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07911851870995333</v>
+        <v>0.08276773083578041</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02701986800955249</v>
+        <v>0.02289846227182715</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>532006552.7111212</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1210553184.965977</v>
+        <v>901970274.1144838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.108871489373085</v>
+        <v>0.1044891314826591</v>
       </c>
       <c r="G26" t="n">
-        <v>0.024860451719653</v>
+        <v>0.02951576059976536</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>605276616.159633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3513133005.182891</v>
+        <v>3727232658.448068</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1441885790355975</v>
+        <v>0.1350336142754909</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02672456604039961</v>
+        <v>0.02582171061230447</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1756566536.936216</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3651092989.882987</v>
+        <v>3034962361.658907</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1110522933958823</v>
+        <v>0.1259601342168103</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04294262494214384</v>
+        <v>0.04970953231964777</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1825546562.697035</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3660444386.717296</v>
+        <v>5265407390.220293</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09375216846152079</v>
+        <v>0.1486537602930244</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03138870693739233</v>
+        <v>0.03214782431316086</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>156</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1830222233.724221</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2221608411.425427</v>
+        <v>1811865541.337936</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1041276134241411</v>
+        <v>0.09301023069269998</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03429503755211492</v>
+        <v>0.03927106599554256</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1110804268.404516</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>997368870.6810781</v>
+        <v>1084965378.027323</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1075006896883801</v>
+        <v>0.1097362563142318</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0349445791844822</v>
+        <v>0.04150114514668107</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>498684434.5136027</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1180803949.879746</v>
+        <v>1520520403.353511</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1102954922010981</v>
+        <v>0.1189924558380799</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03402083185130427</v>
+        <v>0.03575572517614871</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>590401977.1870065</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2002031691.120633</v>
+        <v>2548933186.392354</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1552230694550946</v>
+        <v>0.1949026999673148</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0447794821884747</v>
+        <v>0.05399723923059465</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>107</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1001015926.207517</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>986277344.9100837</v>
+        <v>1550238791.237758</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1116072769936344</v>
+        <v>0.07369800915323761</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02617195840737868</v>
+        <v>0.02719335354782145</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>493138712.5674796</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1193186117.657961</v>
+        <v>826284319.6442243</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09395888656873494</v>
+        <v>0.09547973531329879</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03113054058235923</v>
+        <v>0.03445316819969011</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>596593035.0510366</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2257087194.079831</v>
+        <v>3086294693.51039</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1123017330910688</v>
+        <v>0.1672512507787495</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02161208610740811</v>
+        <v>0.02324899273020111</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>89</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1128543638.468989</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2282738459.085767</v>
+        <v>2232132763.020873</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09948752637206368</v>
+        <v>0.080078199929523</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04238200346240645</v>
+        <v>0.03813358395407861</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>93</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1141369295.71911</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1710387650.226918</v>
+        <v>1919974258.186745</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08423848725562787</v>
+        <v>0.09412872674388201</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02778518866376748</v>
+        <v>0.02796525383076832</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>855193844.6574721</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1847674460.278182</v>
+        <v>1448782296.886835</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1188850786188466</v>
+        <v>0.1347658562920717</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02724474905080047</v>
+        <v>0.03036350992763391</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>923837247.8129494</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1128228844.145785</v>
+        <v>1221592164.019337</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1628310517805149</v>
+        <v>0.133824643020289</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05543874493758268</v>
+        <v>0.03890098843199303</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>564114481.3374879</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1888991243.160367</v>
+        <v>2156733416.020511</v>
       </c>
       <c r="F41" t="n">
-        <v>0.105601040492763</v>
+        <v>0.1356495060890663</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04442181578159404</v>
+        <v>0.04134685048811071</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>90</v>
-      </c>
-      <c r="J41" t="n">
-        <v>944495706.7259403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3447605291.647513</v>
+        <v>4062462642.425885</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1164828791128783</v>
+        <v>0.1104501225463189</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04601720307147884</v>
+        <v>0.04442709584590954</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1723802637.076393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2673974747.747611</v>
+        <v>2024028245.75859</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1363082718468678</v>
+        <v>0.1877690248440549</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02583646953222695</v>
+        <v>0.02083095910736078</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>126</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1336987405.057997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2334462439.330039</v>
+        <v>1606256805.383256</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08054979592922548</v>
+        <v>0.07981685925400848</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02785466445989836</v>
+        <v>0.0312543700496619</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1167231392.735301</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2253174637.135513</v>
+        <v>1931320893.489443</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1756369402691626</v>
+        <v>0.1745099948524191</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04798766165591325</v>
+        <v>0.04897376113792615</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1126587334.94659</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3518538180.87131</v>
+        <v>5514950943.820102</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1553887351800551</v>
+        <v>0.1599584153428247</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04382571003429819</v>
+        <v>0.05887835218380739</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>126</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1759269032.450808</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3766661652.713269</v>
+        <v>4851174614.936016</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1672873575646611</v>
+        <v>0.1588991394851753</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0571033358637321</v>
+        <v>0.04514925950632612</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>95</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1883330812.260989</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3586342151.918</v>
+        <v>2950736066.427003</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07886134419280652</v>
+        <v>0.09741350292719687</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02429940623224511</v>
+        <v>0.03049307228957318</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1793171134.381141</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1599344391.268828</v>
+        <v>1260658580.586441</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1256924384726529</v>
+        <v>0.158703040505105</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0424414849913432</v>
+        <v>0.04383719232457941</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>799672212.2323055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2743663145.888665</v>
+        <v>4053836120.76583</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1735425463412408</v>
+        <v>0.1136569783191718</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04398068069086195</v>
+        <v>0.04589927837488902</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>121</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1371831651.022876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>944939473.833945</v>
+        <v>1356435032.011922</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1495363257885967</v>
+        <v>0.1530775277864693</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05348443036414677</v>
+        <v>0.04255450651263331</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>472469829.8068728</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4345495030.619816</v>
+        <v>3365187054.410573</v>
       </c>
       <c r="F52" t="n">
-        <v>0.105380379238657</v>
+        <v>0.1115204603052569</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04481741586133037</v>
+        <v>0.0569259070679363</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>146</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2172747551.464704</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3077686656.817411</v>
+        <v>2503390844.598383</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1507749748170546</v>
+        <v>0.1571809779689353</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02989533529970969</v>
+        <v>0.02733961468658016</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>103</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1538843355.489351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4365770523.94383</v>
+        <v>3239654854.910014</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1043388390600608</v>
+        <v>0.1176033432150008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05278862226373824</v>
+        <v>0.032139594283403</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>116</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2182885354.758235</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4841647734.294959</v>
+        <v>3598257873.575906</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1703272393944135</v>
+        <v>0.1733677090221695</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02708167631423473</v>
+        <v>0.02474298873781128</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2420823879.23212</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1537414740.089262</v>
+        <v>1360867273.619642</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1289440942241754</v>
+        <v>0.1452272253423048</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04289148384462041</v>
+        <v>0.04724210684873413</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>768707406.777493</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3897619032.998377</v>
+        <v>3084825237.898123</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1745719436683918</v>
+        <v>0.1277719111910357</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02275527512290849</v>
+        <v>0.02272097760342816</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>112</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1948809596.280157</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1810497479.276409</v>
+        <v>1469978128.338891</v>
       </c>
       <c r="F58" t="n">
-        <v>0.19216827766049</v>
+        <v>0.1636135062289406</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03252435785515701</v>
+        <v>0.03291265700824233</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>905248742.4440734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4830377280.449963</v>
+        <v>4088827951.800219</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08470625097957103</v>
+        <v>0.1108089846898376</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04883505316164195</v>
+        <v>0.04639110557109877</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2415188576.133253</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2539086465.601979</v>
+        <v>2577996087.640118</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1326022366148229</v>
+        <v>0.1842362275020777</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02939336119369067</v>
+        <v>0.03181514368255007</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1269543254.81149</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2215336789.419988</v>
+        <v>2157979108.792643</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1246312277120663</v>
+        <v>0.1090331018837157</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02490277066180851</v>
+        <v>0.02410816880574592</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>122</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1107668449.184303</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1490495703.90562</v>
+        <v>1393061310.978104</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1647165928031891</v>
+        <v>0.1628024308968272</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03101611719940249</v>
+        <v>0.0478309694712296</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>745247833.6045262</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3856784224.428333</v>
+        <v>4877427539.867134</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0846647762933954</v>
+        <v>0.09423390021813523</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03644881684939696</v>
+        <v>0.0415517772476947</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1928392181.02339</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4420160640.265576</v>
+        <v>5353653043.06299</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1431077957611721</v>
+        <v>0.1576338126699781</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02835146068854926</v>
+        <v>0.02376392004443641</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>110</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2210080385.557605</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4613220989.425828</v>
+        <v>4427777375.861858</v>
       </c>
       <c r="F65" t="n">
-        <v>0.169246504591224</v>
+        <v>0.1334090945340367</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02666913875677389</v>
+        <v>0.02076631984572781</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>127</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2306610476.700945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4957339789.502712</v>
+        <v>4672669505.496999</v>
       </c>
       <c r="F66" t="n">
-        <v>0.143380831453244</v>
+        <v>0.1602224854958015</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04352609568919995</v>
+        <v>0.03755387738889179</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>104</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2478669919.635301</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3173606365.191644</v>
+        <v>2537263953.911331</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06999317158720156</v>
+        <v>0.0623286230869227</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04080604054615752</v>
+        <v>0.04364565067738729</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>114</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1586803186.19118</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5569440759.499661</v>
+        <v>5283009436.308361</v>
       </c>
       <c r="F68" t="n">
-        <v>0.153859167555554</v>
+        <v>0.1049393552810672</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05088137380471511</v>
+        <v>0.04940470353423216</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2784720470.64808</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1641106961.863616</v>
+        <v>2362036977.054028</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1307502182855531</v>
+        <v>0.1128231249171062</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03710688406203865</v>
+        <v>0.04888984153251646</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>820553439.4920665</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2438704889.060666</v>
+        <v>2908339394.067575</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06812811075471413</v>
+        <v>0.08357616284652745</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04342384412358457</v>
+        <v>0.04899738809367647</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>101</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1219352385.073491</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4338282050.785401</v>
+        <v>3922781290.034153</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1795470138862077</v>
+        <v>0.1379603138772743</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02342077887931473</v>
+        <v>0.0210906860635343</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>129</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2169141081.69206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2021449635.89466</v>
+        <v>1650134186.225204</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07925924046233795</v>
+        <v>0.07636380439618655</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04925699215930244</v>
+        <v>0.03659360460708224</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1010724760.851478</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3134427831.871327</v>
+        <v>2750693850.114658</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1062810435315844</v>
+        <v>0.08177119617247272</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03816447477661829</v>
+        <v>0.03987963268023956</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>134</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1567213899.612358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3381847546.866971</v>
+        <v>3058145552.797853</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1640596939772959</v>
+        <v>0.1491813093569103</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03021321445843154</v>
+        <v>0.02303049267131343</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>121</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1690923805.851413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2125498737.950382</v>
+        <v>2162123369.131324</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1037144132039973</v>
+        <v>0.128098600767401</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02842073409157727</v>
+        <v>0.03772167248152235</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1062749321.371094</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3911838477.335165</v>
+        <v>4467916865.580842</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08512766235881782</v>
+        <v>0.1083524610234948</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03200000752085581</v>
+        <v>0.02432592056215878</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>81</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1955919219.669031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1824461416.422393</v>
+        <v>1506249559.901192</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1364069903589202</v>
+        <v>0.1263545196834239</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0257152238374764</v>
+        <v>0.02050428484477522</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>912230743.7858993</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3298705082.603735</v>
+        <v>3208929714.800259</v>
       </c>
       <c r="F78" t="n">
-        <v>0.13133146064014</v>
+        <v>0.1045667509090109</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05290857288017891</v>
+        <v>0.04482904404402734</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>123</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1649352557.234953</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1635695188.34268</v>
+        <v>1428495937.161748</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1294094182953848</v>
+        <v>0.1134776693130533</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02611319181572549</v>
+        <v>0.02466518400881904</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>817847652.0935388</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5321153675.603904</v>
+        <v>4465574338.025912</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08014401000543739</v>
+        <v>0.08911398099618899</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02729397769211589</v>
+        <v>0.03429093542301936</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>76</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2660576903.005311</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4849974777.242544</v>
+        <v>4751015778.685066</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107672565265831</v>
+        <v>0.1226308877411059</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02047192853959966</v>
+        <v>0.03004365646898184</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2424987383.410384</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5496815207.336681</v>
+        <v>5417748895.839066</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1464981532320766</v>
+        <v>0.2091169035962361</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02010588050653369</v>
+        <v>0.02091128454354357</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>123</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2748407559.915394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2423685493.283026</v>
+        <v>1939336905.623748</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1083971065808567</v>
+        <v>0.09983735769805872</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03071507202699872</v>
+        <v>0.03807179599460057</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1211842784.722566</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2165185776.716213</v>
+        <v>2196818359.071553</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1035880114116859</v>
+        <v>0.1123312421797778</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04013874079564693</v>
+        <v>0.03680095111015423</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1082592869.18925</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3132370198.669814</v>
+        <v>3554783527.50862</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1199001414815329</v>
+        <v>0.1131907738053069</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03752155609596187</v>
+        <v>0.05594677341296093</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>133</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1566185174.134912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2727051498.26052</v>
+        <v>2749977839.860413</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1729570652843768</v>
+        <v>0.146930200572932</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02671893946430215</v>
+        <v>0.02375175185638055</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1363525877.864193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>953531334.6065911</v>
+        <v>1020078711.547478</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1226975169204681</v>
+        <v>0.143172122377028</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03585445340672854</v>
+        <v>0.04238988640710512</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>476765659.7328162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2612177962.111519</v>
+        <v>2524278066.01719</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1358424030620397</v>
+        <v>0.1252255423690378</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03073940127177132</v>
+        <v>0.03554699314309668</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>141</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1306088973.195448</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3447040629.122438</v>
+        <v>2729455961.048778</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1495006251569837</v>
+        <v>0.1305664962650215</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03766268489417003</v>
+        <v>0.04051690131579756</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>120</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1723520319.911313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2012776730.729686</v>
+        <v>1821045886.968383</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1104926233659233</v>
+        <v>0.1082331170223051</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0467999783620064</v>
+        <v>0.04967519187015735</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1006388437.940061</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2093802912.059437</v>
+        <v>1341607757.693693</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1813819984176926</v>
+        <v>0.126763255247713</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05829776174555687</v>
+        <v>0.05490312857978686</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1046901415.792589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2721281480.574031</v>
+        <v>2089021044.950693</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0673086792306776</v>
+        <v>0.08823681536926617</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03769035769231576</v>
+        <v>0.03396649495162678</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>95</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1360640741.005328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4090920376.156477</v>
+        <v>3887794863.562253</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09824461714104152</v>
+        <v>0.1275489094524233</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03556562272336548</v>
+        <v>0.04319026996853692</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>106</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2045460182.805515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2272805986.840726</v>
+        <v>1658513056.584449</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1060445487963278</v>
+        <v>0.1175169002094133</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02841335943272862</v>
+        <v>0.03586719836196456</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1136403027.298455</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2808432016.561384</v>
+        <v>2086393284.680872</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1137372248293256</v>
+        <v>0.1348889698211747</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03675678308663904</v>
+        <v>0.03191932453662578</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>90</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1404216021.934326</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2084607033.22894</v>
+        <v>2343085022.319217</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09478070921686615</v>
+        <v>0.1098290370242848</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03371734704544167</v>
+        <v>0.03016280439525506</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1042303494.57311</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4236274181.411946</v>
+        <v>5357521498.842154</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1223252054724854</v>
+        <v>0.1578686322920452</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0258414687844458</v>
+        <v>0.02838117265760607</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>114</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2118137166.092099</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3433592089.50535</v>
+        <v>2704748994.803126</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1253597598875716</v>
+        <v>0.0806700126517868</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02847757877825407</v>
+        <v>0.03263093297475304</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1716796058.890588</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2875525824.093468</v>
+        <v>3109823902.780472</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09992771956668076</v>
+        <v>0.1369247309613119</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02763383823627448</v>
+        <v>0.02939573168840694</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1437762888.973572</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2977885339.06061</v>
+        <v>3589479225.688569</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1742504449072164</v>
+        <v>0.1524223196155881</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01727594051314751</v>
+        <v>0.0229175529457711</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1488942658.602658</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2208658502.353619</v>
+        <v>3182699954.752526</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1757358544693774</v>
+        <v>0.1875560547274692</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03952776234758146</v>
+        <v>0.04550200879054588</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>144</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1104329235.668744</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_354.xlsx
+++ b/output/fit_clients/fit_round_354.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2498481463.97603</v>
+        <v>1639012345.414799</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07435341856660595</v>
+        <v>0.09692308726150042</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0367171663757601</v>
+        <v>0.03768313539473942</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1727429299.425203</v>
+        <v>1591871070.431916</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1223489924865709</v>
+        <v>0.1386838827516514</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04392300498873419</v>
+        <v>0.04546502974401505</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5112211014.094336</v>
+        <v>4678355455.259625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.101339954094352</v>
+        <v>0.1564988555672003</v>
       </c>
       <c r="G4" t="n">
-        <v>0.026045611465799</v>
+        <v>0.03705445417142955</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4157478794.469239</v>
+        <v>3700870200.483479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09975108727399651</v>
+        <v>0.1106240018243349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04040141954286438</v>
+        <v>0.04805908092839516</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2644137732.255843</v>
+        <v>2663365920.334333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.145609267985949</v>
+        <v>0.1095003520242002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05294214352782608</v>
+        <v>0.05483385511180142</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2940573515.487519</v>
+        <v>3064085108.507683</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07234062621506854</v>
+        <v>0.06309866200268759</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04763408811912967</v>
+        <v>0.04511572441914006</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3519509799.550376</v>
+        <v>3543327996.843215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1590128538105383</v>
+        <v>0.1455727129192297</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02842306138600777</v>
+        <v>0.02216962219590353</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2300496675.618824</v>
+        <v>2306065333.339756</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1909874199285098</v>
+        <v>0.1340178682024074</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0246794496932074</v>
+        <v>0.02497431831805281</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3804892988.885446</v>
+        <v>3655004156.100935</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1380404656053978</v>
+        <v>0.142543283248081</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04535948154330201</v>
+        <v>0.03700549896715562</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2945352295.272823</v>
+        <v>3123881468.633041</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1297356070396798</v>
+        <v>0.1283502276505345</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0477929822488232</v>
+        <v>0.03265300788100057</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2702688220.882023</v>
+        <v>2105151580.719032</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1588113482349261</v>
+        <v>0.1392284626916447</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03935814264470384</v>
+        <v>0.03939442413320355</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5341728513.26307</v>
+        <v>5011465659.818428</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06457718001776716</v>
+        <v>0.0769741845061266</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02883871765465307</v>
+        <v>0.02275243815180847</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3454197411.017903</v>
+        <v>2497441018.00256</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1201113311754137</v>
+        <v>0.1436020923978967</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03559168450863853</v>
+        <v>0.02725681886285187</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1188821128.86187</v>
+        <v>1315841934.195614</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0965087745815037</v>
+        <v>0.09097514541476888</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04370747288967267</v>
+        <v>0.0452550483586471</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1849410896.741365</v>
+        <v>2112558105.534445</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08584883608112844</v>
+        <v>0.0702380578787105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03866296851936995</v>
+        <v>0.04808196327247819</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4609118968.833798</v>
+        <v>4627437155.027008</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1249578334661404</v>
+        <v>0.1635598168019705</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03949234238969436</v>
+        <v>0.04388684365248086</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2785404601.057459</v>
+        <v>3852021743.088609</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1509089436912179</v>
+        <v>0.1202539215759313</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02141639752572724</v>
+        <v>0.03312531884130884</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>892042119.3185391</v>
+        <v>1100537191.758514</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1393928593397485</v>
+        <v>0.1402585823620273</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01823061170276353</v>
+        <v>0.02614467410039145</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2162248606.202359</v>
+        <v>2205123857.140362</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1322350428444431</v>
+        <v>0.1283674500446416</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02938569481558177</v>
+        <v>0.02062563251158945</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1668695751.010407</v>
+        <v>1792237468.783622</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09273151489973194</v>
+        <v>0.09115974541098566</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02827286474825393</v>
+        <v>0.04105339731735111</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3273865753.040385</v>
+        <v>2673791235.228452</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1444026489454096</v>
+        <v>0.1005671539238816</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04888858746223441</v>
+        <v>0.04929448324330584</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1111851285.600096</v>
+        <v>1372656580.894423</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1699056185655013</v>
+        <v>0.16952887542647</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05474795733330584</v>
+        <v>0.04940912013772377</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3898466872.694273</v>
+        <v>3870021752.339437</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1330621158268167</v>
+        <v>0.1145981147386904</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03020280149332985</v>
+        <v>0.02634327728592499</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1480513006.946991</v>
+        <v>1089677037.872705</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08276773083578041</v>
+        <v>0.1049904589331056</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02289846227182715</v>
+        <v>0.02720690031394511</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>901970274.1144838</v>
+        <v>1208001133.440438</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1044891314826591</v>
+        <v>0.09683084970489164</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02951576059976536</v>
+        <v>0.02495581145184667</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3727232658.448068</v>
+        <v>3425354564.482579</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1350336142754909</v>
+        <v>0.09632264851600446</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02582171061230447</v>
+        <v>0.0202616584464108</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3034962361.658907</v>
+        <v>2374457304.758159</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1259601342168103</v>
+        <v>0.09915435443247168</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04970953231964777</v>
+        <v>0.04112698889664727</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5265407390.220293</v>
+        <v>5087427721.762099</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1486537602930244</v>
+        <v>0.1289019762032555</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03214782431316086</v>
+        <v>0.03726137345068206</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1811865541.337936</v>
+        <v>2124851128.223578</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09301023069269998</v>
+        <v>0.09353245143455576</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03927106599554256</v>
+        <v>0.02572030035085568</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1084965378.027323</v>
+        <v>971994327.2815155</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1097362563142318</v>
+        <v>0.09376313444145083</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04150114514668107</v>
+        <v>0.03311982930797494</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1520520403.353511</v>
+        <v>1519453800.884214</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1189924558380799</v>
+        <v>0.1025117454742733</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03575572517614871</v>
+        <v>0.03685311381654617</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2548933186.392354</v>
+        <v>2457519789.956173</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1949026999673148</v>
+        <v>0.1679138599567504</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05399723923059465</v>
+        <v>0.05468334498354323</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1550238791.237758</v>
+        <v>1479748403.024105</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07369800915323761</v>
+        <v>0.09610992351998654</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02719335354782145</v>
+        <v>0.0217537541301457</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>826284319.6442243</v>
+        <v>1146813067.615291</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09547973531329879</v>
+        <v>0.1150589271046592</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03445316819969011</v>
+        <v>0.0424993743219868</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3086294693.51039</v>
+        <v>3157651217.609395</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1672512507787495</v>
+        <v>0.1102252519332196</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02324899273020111</v>
+        <v>0.02236193328394305</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2232132763.020873</v>
+        <v>1986150536.472425</v>
       </c>
       <c r="F37" t="n">
-        <v>0.080078199929523</v>
+        <v>0.08596608177498657</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03813358395407861</v>
+        <v>0.02928844043624148</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1919974258.186745</v>
+        <v>2151172270.231971</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09412872674388201</v>
+        <v>0.1176646098838168</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02796525383076832</v>
+        <v>0.03602583879138505</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1448782296.886835</v>
+        <v>2006395027.348297</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1347658562920717</v>
+        <v>0.1682497664574065</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03036350992763391</v>
+        <v>0.02584723704248155</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1221592164.019337</v>
+        <v>1154145244.428992</v>
       </c>
       <c r="F40" t="n">
-        <v>0.133824643020289</v>
+        <v>0.109713792525352</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03890098843199303</v>
+        <v>0.05867364515812024</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2156733416.020511</v>
+        <v>1919756177.169665</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1356495060890663</v>
+        <v>0.1172921635192809</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04134685048811071</v>
+        <v>0.04191217925793185</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4062462642.425885</v>
+        <v>3626671250.994131</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1104501225463189</v>
+        <v>0.09758431567143949</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04442709584590954</v>
+        <v>0.03502318855100654</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2024028245.75859</v>
+        <v>1948411292.754661</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1877690248440549</v>
+        <v>0.1379425661858276</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02083095910736078</v>
+        <v>0.01970764619070697</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1606256805.383256</v>
+        <v>1986739833.005481</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07981685925400848</v>
+        <v>0.06227968485878143</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0312543700496619</v>
+        <v>0.02470922795840247</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1931320893.489443</v>
+        <v>1879274573.315849</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1745099948524191</v>
+        <v>0.1785832126846416</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04897376113792615</v>
+        <v>0.04189184714221844</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5514950943.820102</v>
+        <v>5531199168.519165</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1599584153428247</v>
+        <v>0.1653380452648283</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05887835218380739</v>
+        <v>0.05574227636350411</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4851174614.936016</v>
+        <v>5133046674.253491</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1588991394851753</v>
+        <v>0.1399648914773764</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04514925950632612</v>
+        <v>0.05790590323331818</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2950736066.427003</v>
+        <v>4733134964.028275</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09741350292719687</v>
+        <v>0.07352874407954468</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03049307228957318</v>
+        <v>0.03857607642737342</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1260658580.586441</v>
+        <v>1454602551.355164</v>
       </c>
       <c r="F49" t="n">
-        <v>0.158703040505105</v>
+        <v>0.1738380314825722</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04383719232457941</v>
+        <v>0.02758978304016404</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4053836120.76583</v>
+        <v>3929658938.374092</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1136569783191718</v>
+        <v>0.1245513775293291</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04589927837488902</v>
+        <v>0.03345742754210135</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1356435032.011922</v>
+        <v>1198102515.174051</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1530775277864693</v>
+        <v>0.1363213935913173</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04255450651263331</v>
+        <v>0.0497272419221096</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3365187054.410573</v>
+        <v>3717020231.084101</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1115204603052569</v>
+        <v>0.0952276786734557</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0569259070679363</v>
+        <v>0.03887260469491401</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2503390844.598383</v>
+        <v>3151596237.673818</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1571809779689353</v>
+        <v>0.1536837997443396</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02733961468658016</v>
+        <v>0.03532103071600804</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3239654854.910014</v>
+        <v>4809921679.024953</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1176033432150008</v>
+        <v>0.1551146642099922</v>
       </c>
       <c r="G54" t="n">
-        <v>0.032139594283403</v>
+        <v>0.03609874352845204</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3598257873.575906</v>
+        <v>4481646577.346356</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1733677090221695</v>
+        <v>0.2172826560500764</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02474298873781128</v>
+        <v>0.02249957890661896</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1360867273.619642</v>
+        <v>1151484253.818357</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1452272253423048</v>
+        <v>0.1004049674088435</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04724210684873413</v>
+        <v>0.0464165852434723</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3084825237.898123</v>
+        <v>4491584859.556615</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1277719111910357</v>
+        <v>0.1142177470119469</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02272097760342816</v>
+        <v>0.02101168714519068</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1469978128.338891</v>
+        <v>1632226557.636572</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1636135062289406</v>
+        <v>0.190636749686899</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03291265700824233</v>
+        <v>0.03634260651099864</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4088827951.800219</v>
+        <v>4699858610.517787</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1108089846898376</v>
+        <v>0.08207275099615925</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04639110557109877</v>
+        <v>0.04730645977680325</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2577996087.640118</v>
+        <v>2499029357.943407</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1842362275020777</v>
+        <v>0.170678878431333</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03181514368255007</v>
+        <v>0.02200824597989449</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2157979108.792643</v>
+        <v>3407541084.454464</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1090331018837157</v>
+        <v>0.156543079319875</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02410816880574592</v>
+        <v>0.02904408148312483</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1393061310.978104</v>
+        <v>1458247645.518866</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1628024308968272</v>
+        <v>0.122114093988181</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0478309694712296</v>
+        <v>0.04161953413379439</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4877427539.867134</v>
+        <v>4771993482.297256</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09423390021813523</v>
+        <v>0.09902513706244</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0415517772476947</v>
+        <v>0.04412774982604041</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5353653043.06299</v>
+        <v>3403493661.816404</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1576338126699781</v>
+        <v>0.1253537478733402</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02376392004443641</v>
+        <v>0.02392791870744437</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4427777375.861858</v>
+        <v>4819953199.173397</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1334090945340367</v>
+        <v>0.1225434518093725</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02076631984572781</v>
+        <v>0.02281097341494452</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4672669505.496999</v>
+        <v>4125241657.052089</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1602224854958015</v>
+        <v>0.139847645499586</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03755387738889179</v>
+        <v>0.0409351435582513</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2537263953.911331</v>
+        <v>2816832151.084783</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0623286230869227</v>
+        <v>0.09084893495608171</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04364565067738729</v>
+        <v>0.03405894474927654</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5283009436.308361</v>
+        <v>3738853780.839468</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1049393552810672</v>
+        <v>0.1398253808325975</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04940470353423216</v>
+        <v>0.05026974311222404</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2362036977.054028</v>
+        <v>2176969440.087945</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1128231249171062</v>
+        <v>0.1188341008449524</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04888984153251646</v>
+        <v>0.04075475429613423</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2908339394.067575</v>
+        <v>3556087971.24729</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08357616284652745</v>
+        <v>0.09113914784170613</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04899738809367647</v>
+        <v>0.04458934107466439</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3922781290.034153</v>
+        <v>3930454046.761139</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1379603138772743</v>
+        <v>0.134480026152327</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0210906860635343</v>
+        <v>0.02742393284068015</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1650134186.225204</v>
+        <v>1614773027.743028</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07636380439618655</v>
+        <v>0.1084361246263716</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03659360460708224</v>
+        <v>0.03680784119448236</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2750693850.114658</v>
+        <v>2791564417.556668</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08177119617247272</v>
+        <v>0.06960299973568045</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03987963268023956</v>
+        <v>0.04074040824557298</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3058145552.797853</v>
+        <v>3739399684.168048</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1491813093569103</v>
+        <v>0.1526751063694777</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02303049267131343</v>
+        <v>0.03391701014750503</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2162123369.131324</v>
+        <v>1969019066.786413</v>
       </c>
       <c r="F75" t="n">
-        <v>0.128098600767401</v>
+        <v>0.1552581874951749</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03772167248152235</v>
+        <v>0.02706354589075115</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4467916865.580842</v>
+        <v>3257164846.365652</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1083524610234948</v>
+        <v>0.09585326863956822</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02432592056215878</v>
+        <v>0.02203820432009528</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1506249559.901192</v>
+        <v>1613173950.25432</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1263545196834239</v>
+        <v>0.1770416677495669</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02050428484477522</v>
+        <v>0.02827335042710082</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3208929714.800259</v>
+        <v>4561723067.235487</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1045667509090109</v>
+        <v>0.1241617685483739</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04482904404402734</v>
+        <v>0.04029190150852913</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1428495937.161748</v>
+        <v>1887492480.716723</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1134776693130533</v>
+        <v>0.112077628254588</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02466518400881904</v>
+        <v>0.02590591620679619</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4465574338.025912</v>
+        <v>5013853819.186213</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08911398099618899</v>
+        <v>0.08387192031690154</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03429093542301936</v>
+        <v>0.02437009144666205</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4751015778.685066</v>
+        <v>3762735920.315145</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1226308877411059</v>
+        <v>0.0972083236219707</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03004365646898184</v>
+        <v>0.02787275976556168</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5417748895.839066</v>
+        <v>4328080749.971245</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2091169035962361</v>
+        <v>0.1539729248542068</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02091128454354357</v>
+        <v>0.01892906770302596</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1939336905.623748</v>
+        <v>2456772798.190293</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09983735769805872</v>
+        <v>0.1419628183609955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03807179599460057</v>
+        <v>0.0349331536608624</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2196818359.071553</v>
+        <v>2337605900.213067</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1123312421797778</v>
+        <v>0.07754748591251864</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03680095111015423</v>
+        <v>0.03367760811596197</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3554783527.50862</v>
+        <v>3371740744.21782</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1131907738053069</v>
+        <v>0.112789555669575</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05594677341296093</v>
+        <v>0.05518463690105852</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2749977839.860413</v>
+        <v>2481995799.150588</v>
       </c>
       <c r="F86" t="n">
-        <v>0.146930200572932</v>
+        <v>0.1464450733836759</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02375175185638055</v>
+        <v>0.0178565101751746</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1020078711.547478</v>
+        <v>1417061728.482082</v>
       </c>
       <c r="F87" t="n">
-        <v>0.143172122377028</v>
+        <v>0.1173216055013781</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04238988640710512</v>
+        <v>0.04210912664379572</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2524278066.01719</v>
+        <v>2951601230.438682</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1252255423690378</v>
+        <v>0.1279592566854492</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03554699314309668</v>
+        <v>0.03089218400167777</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2729455961.048778</v>
+        <v>2625115632.585402</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1305664962650215</v>
+        <v>0.1538366271568518</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04051690131579756</v>
+        <v>0.03617678107215896</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1821045886.968383</v>
+        <v>1671291475.94069</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1082331170223051</v>
+        <v>0.1000045088575653</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04967519187015735</v>
+        <v>0.0345786822813353</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1341607757.693693</v>
+        <v>1924784934.401137</v>
       </c>
       <c r="F91" t="n">
-        <v>0.126763255247713</v>
+        <v>0.1536133948988953</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05490312857978686</v>
+        <v>0.04926923174233851</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2089021044.950693</v>
+        <v>2665289244.846298</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08823681536926617</v>
+        <v>0.09493163852278223</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03396649495162678</v>
+        <v>0.04553445686958201</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3887794863.562253</v>
+        <v>4996201468.91077</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1275489094524233</v>
+        <v>0.1064010108005827</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04319026996853692</v>
+        <v>0.04235583213103072</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1658513056.584449</v>
+        <v>1950440177.249557</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1175169002094133</v>
+        <v>0.1430588771101716</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03586719836196456</v>
+        <v>0.0273123944886188</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2086393284.680872</v>
+        <v>2354117932.692811</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1348889698211747</v>
+        <v>0.1053218559032862</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03191932453662578</v>
+        <v>0.0516962338091602</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2343085022.319217</v>
+        <v>1715079416.584961</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1098290370242848</v>
+        <v>0.1202068871898424</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03016280439525506</v>
+        <v>0.04418071261541383</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5357521498.842154</v>
+        <v>3500644181.14088</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1578686322920452</v>
+        <v>0.1621133349660778</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02838117265760607</v>
+        <v>0.02566282647169688</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2704748994.803126</v>
+        <v>3677272185.551877</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0806700126517868</v>
+        <v>0.08821741264244143</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03263093297475304</v>
+        <v>0.03139445455775272</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3109823902.780472</v>
+        <v>2065422222.741351</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1369247309613119</v>
+        <v>0.1257323970072681</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02939573168840694</v>
+        <v>0.03052946635571281</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3589479225.688569</v>
+        <v>3384245087.893506</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1524223196155881</v>
+        <v>0.1382554870756517</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0229175529457711</v>
+        <v>0.02480784718088501</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3182699954.752526</v>
+        <v>2227142225.588072</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1875560547274692</v>
+        <v>0.1524965160787794</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04550200879054588</v>
+        <v>0.04751997992917389</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_354.xlsx
+++ b/output/fit_clients/fit_round_354.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1639012345.414799</v>
+        <v>1810246436.070513</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09692308726150042</v>
+        <v>0.07832526417039071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03768313539473942</v>
+        <v>0.02923712067099272</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1591871070.431916</v>
+        <v>2370610524.252019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1386838827516514</v>
+        <v>0.1336161232410245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04546502974401505</v>
+        <v>0.04280608188138795</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4678355455.259625</v>
+        <v>4325798712.87594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1564988555672003</v>
+        <v>0.1356251664381685</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03705445417142955</v>
+        <v>0.02303239253134313</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>183</v>
+      </c>
+      <c r="J4" t="n">
+        <v>353</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60.12972851387412</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3700870200.483479</v>
+        <v>3551305232.322241</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1106240018243349</v>
+        <v>0.07223386597155333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04805908092839516</v>
+        <v>0.05067968615836391</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>142</v>
+      </c>
+      <c r="J5" t="n">
+        <v>352</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2663365920.334333</v>
+        <v>1978727415.435865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1095003520242002</v>
+        <v>0.09032825880941019</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05483385511180142</v>
+        <v>0.04381634091548395</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3064085108.507683</v>
+        <v>2144407885.868952</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06309866200268759</v>
+        <v>0.07646185724248104</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04511572441914006</v>
+        <v>0.04274690110580071</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3543327996.843215</v>
+        <v>3978286618.854474</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1455727129192297</v>
+        <v>0.1923922830424881</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02216962219590353</v>
+        <v>0.02030387300029808</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>93</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="n">
+        <v>77.02748242654</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2306065333.339756</v>
+        <v>1978459300.989097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1340178682024074</v>
+        <v>0.1617504175271533</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02497431831805281</v>
+        <v>0.02634440273192832</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3655004156.100935</v>
+        <v>3578470231.280886</v>
       </c>
       <c r="F10" t="n">
-        <v>0.142543283248081</v>
+        <v>0.1578589072333123</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03700549896715562</v>
+        <v>0.04994332289495283</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>298</v>
+      </c>
+      <c r="J10" t="n">
+        <v>353</v>
+      </c>
+      <c r="K10" t="n">
+        <v>61.4553018622877</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3123881468.633041</v>
+        <v>3141483286.947752</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1283502276505345</v>
+        <v>0.1669293055936474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03265300788100057</v>
+        <v>0.04201190039870753</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>146</v>
+      </c>
+      <c r="J11" t="n">
+        <v>353</v>
+      </c>
+      <c r="K11" t="n">
+        <v>54.45607852341008</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2105151580.719032</v>
+        <v>2721664708.882331</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1392284626916447</v>
+        <v>0.1756760375547593</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03939442413320355</v>
+        <v>0.03635328904459445</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5011465659.818428</v>
+        <v>3687864035.75982</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0769741845061266</v>
+        <v>0.07366865718983352</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02275243815180847</v>
+        <v>0.0311300105116481</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>183</v>
+      </c>
+      <c r="J13" t="n">
+        <v>353</v>
+      </c>
+      <c r="K13" t="n">
+        <v>63.21836644060242</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +931,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2497441018.00256</v>
+        <v>3622226702.486012</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1436020923978967</v>
+        <v>0.1767344247763481</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02725681886285187</v>
+        <v>0.04040872964084603</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>349</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1315841934.195614</v>
+        <v>1571335413.043499</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09097514541476888</v>
+        <v>0.07614775630553587</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0452550483586471</v>
+        <v>0.04131216174763756</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2112558105.534445</v>
+        <v>2154809745.986605</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0702380578787105</v>
+        <v>0.08028630767101241</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04808196327247819</v>
+        <v>0.04061332192510544</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4627437155.027008</v>
+        <v>5086350365.12745</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1635598168019705</v>
+        <v>0.1084387714503448</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04388684365248086</v>
+        <v>0.03337103455811428</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>167</v>
+      </c>
+      <c r="J17" t="n">
+        <v>353</v>
+      </c>
+      <c r="K17" t="n">
+        <v>64.3914850336262</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3852021743.088609</v>
+        <v>3650746486.779036</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1202539215759313</v>
+        <v>0.1271257613274711</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03312531884130884</v>
+        <v>0.03295325777408025</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>87</v>
+      </c>
+      <c r="J18" t="n">
+        <v>350</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1108,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1100537191.758514</v>
+        <v>1026493082.18994</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1402585823620273</v>
+        <v>0.1694051202260793</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02614467410039145</v>
+        <v>0.01794961748789401</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2205123857.140362</v>
+        <v>2198701795.749879</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1283674500446416</v>
+        <v>0.1023631200016138</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02062563251158945</v>
+        <v>0.02821019239085651</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1792237468.783622</v>
+        <v>1706252374.935401</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09115974541098566</v>
+        <v>0.07686195431263471</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04105339731735111</v>
+        <v>0.035967863067855</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2673791235.228452</v>
+        <v>3365910187.055461</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1005671539238816</v>
+        <v>0.1256453814838008</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04929448324330584</v>
+        <v>0.04154016324012525</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>96</v>
+      </c>
+      <c r="J22" t="n">
+        <v>351</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1372656580.894423</v>
+        <v>1432153082.071753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.16952887542647</v>
+        <v>0.1122815794377063</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04940912013772377</v>
+        <v>0.03858064022083174</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1283,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3870021752.339437</v>
+        <v>3628408562.5065</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1145981147386904</v>
+        <v>0.1003882150439614</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02634327728592499</v>
+        <v>0.03503710989333816</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>106</v>
+      </c>
+      <c r="J24" t="n">
+        <v>354</v>
+      </c>
+      <c r="K24" t="n">
+        <v>67.38148228266606</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1089677037.872705</v>
+        <v>1444494787.604322</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1049904589331056</v>
+        <v>0.1056892518410789</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02720690031394511</v>
+        <v>0.02953396755100955</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1208001133.440438</v>
+        <v>1214370545.75557</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09683084970489164</v>
+        <v>0.1154356011136977</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02495581145184667</v>
+        <v>0.03288811189839254</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3425354564.482579</v>
+        <v>3948138548.682623</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09632264851600446</v>
+        <v>0.1006366638255152</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0202616584464108</v>
+        <v>0.01801856595606038</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>147</v>
+      </c>
+      <c r="J27" t="n">
+        <v>354</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1419,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2374457304.758159</v>
+        <v>3428400643.646286</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09915435443247168</v>
+        <v>0.1235833122184812</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04112698889664727</v>
+        <v>0.05034980815231879</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>82</v>
+      </c>
+      <c r="J28" t="n">
+        <v>354</v>
+      </c>
+      <c r="K28" t="n">
+        <v>69.26824793149234</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1462,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5087427721.762099</v>
+        <v>4830685849.035612</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1289019762032555</v>
+        <v>0.1502553281929349</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03726137345068206</v>
+        <v>0.03290685172422496</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>315</v>
+      </c>
+      <c r="J29" t="n">
+        <v>353</v>
+      </c>
+      <c r="K29" t="n">
+        <v>60.67101370079783</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2124851128.223578</v>
+        <v>2227136629.932515</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09353245143455576</v>
+        <v>0.1245075371899829</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02572030035085568</v>
+        <v>0.02721203502223537</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1534,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>971994327.2815155</v>
+        <v>1417202421.761728</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09376313444145083</v>
+        <v>0.09034840173568756</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03311982930797494</v>
+        <v>0.03170980001020052</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1519453800.884214</v>
+        <v>1275966657.101436</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1025117454742733</v>
+        <v>0.07304280966510147</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03685311381654617</v>
+        <v>0.02993898150883298</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2457519789.956173</v>
+        <v>1915968237.059905</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1679138599567504</v>
+        <v>0.1316148926460019</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05468334498354323</v>
+        <v>0.05194937593054271</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1639,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1479748403.024105</v>
+        <v>1308526277.920034</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09610992351998654</v>
+        <v>0.1075023382799769</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0217537541301457</v>
+        <v>0.02524972263380474</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1146813067.615291</v>
+        <v>1334905393.807928</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1150589271046592</v>
+        <v>0.08722807783543658</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0424993743219868</v>
+        <v>0.03979785474013412</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1709,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3157651217.609395</v>
+        <v>2754405540.779346</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1102252519332196</v>
+        <v>0.1438859251975971</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02236193328394305</v>
+        <v>0.02182909471829754</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1986150536.472425</v>
+        <v>2721951605.029782</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08596608177498657</v>
+        <v>0.08343216956530006</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02928844043624148</v>
+        <v>0.03189522320871705</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1779,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2151172270.231971</v>
+        <v>1617867996.74388</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1176646098838168</v>
+        <v>0.09677884908553529</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03602583879138505</v>
+        <v>0.03625376855063112</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2006395027.348297</v>
+        <v>2187009756.778095</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1682497664574065</v>
+        <v>0.1887445841974109</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02584723704248155</v>
+        <v>0.02394889674531285</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1849,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1154145244.428992</v>
+        <v>1539704354.714787</v>
       </c>
       <c r="F40" t="n">
-        <v>0.109713792525352</v>
+        <v>0.1613409959415701</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05867364515812024</v>
+        <v>0.04789469836499758</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1884,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1919756177.169665</v>
+        <v>2460614641.279278</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1172921635192809</v>
+        <v>0.1429323151252068</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04191217925793185</v>
+        <v>0.0299439547104962</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1913,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3626671250.994131</v>
+        <v>3644187546.326385</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09758431567143949</v>
+        <v>0.1274785478774845</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03502318855100654</v>
+        <v>0.04602843911139209</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>154</v>
+      </c>
+      <c r="J42" t="n">
+        <v>354</v>
+      </c>
+      <c r="K42" t="n">
+        <v>69.92020271630949</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1956,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1948411292.754661</v>
+        <v>2303927151.367665</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1379425661858276</v>
+        <v>0.1521050433968125</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01970764619070697</v>
+        <v>0.02092762541011469</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1986739833.005481</v>
+        <v>2338133930.359022</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06227968485878143</v>
+        <v>0.09227060558756438</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02470922795840247</v>
+        <v>0.0350113890040331</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1879274573.315849</v>
+        <v>1577428981.891063</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1785832126846416</v>
+        <v>0.1536312881505772</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04189184714221844</v>
+        <v>0.04815623177026999</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5531199168.519165</v>
+        <v>4416049722.419255</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1653380452648283</v>
+        <v>0.1365435254647097</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05574227636350411</v>
+        <v>0.03805413568258477</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>212</v>
+      </c>
+      <c r="J46" t="n">
+        <v>354</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2090,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5133046674.253491</v>
+        <v>3678520457.655842</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1399648914773764</v>
+        <v>0.1320445282838279</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05790590323331818</v>
+        <v>0.04594201634976942</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>158</v>
+      </c>
+      <c r="J47" t="n">
+        <v>352</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2125,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4733134964.028275</v>
+        <v>4527922777.292478</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07352874407954468</v>
+        <v>0.07579367036785539</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03857607642737342</v>
+        <v>0.03873344544675361</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>178</v>
+      </c>
+      <c r="J48" t="n">
+        <v>354</v>
+      </c>
+      <c r="K48" t="n">
+        <v>66.07346961353979</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1454602551.355164</v>
+        <v>1875409852.556418</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1738380314825722</v>
+        <v>0.1776719878778031</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02758978304016404</v>
+        <v>0.043176408442619</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2197,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3929658938.374092</v>
+        <v>3065967157.346363</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1245513775293291</v>
+        <v>0.1476603899682755</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03345742754210135</v>
+        <v>0.04686802079281931</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>117</v>
+      </c>
+      <c r="J50" t="n">
+        <v>353</v>
+      </c>
+      <c r="K50" t="n">
+        <v>50.04836208150537</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2240,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1198102515.174051</v>
+        <v>1437074385.807038</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1363213935913173</v>
+        <v>0.1755802071657412</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0497272419221096</v>
+        <v>0.03752677383645487</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2269,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3717020231.084101</v>
+        <v>5265404436.819642</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0952276786734557</v>
+        <v>0.121402788408122</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03887260469491401</v>
+        <v>0.05966822664156749</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>211</v>
+      </c>
+      <c r="J52" t="n">
+        <v>353</v>
+      </c>
+      <c r="K52" t="n">
+        <v>61.66491413072998</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2312,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3151596237.673818</v>
+        <v>2748625132.134205</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1536837997443396</v>
+        <v>0.1793260736767823</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03532103071600804</v>
+        <v>0.0228346602805492</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2347,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4809921679.024953</v>
+        <v>4954050999.608017</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1551146642099922</v>
+        <v>0.1527189324787858</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03609874352845204</v>
+        <v>0.04552530044455833</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>186</v>
+      </c>
+      <c r="J54" t="n">
+        <v>354</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2382,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4481646577.346356</v>
+        <v>4319768932.524655</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2172826560500764</v>
+        <v>0.148452249230264</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02249957890661896</v>
+        <v>0.02996299197578787</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>169</v>
+      </c>
+      <c r="J55" t="n">
+        <v>354</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1151484253.818357</v>
+        <v>1709350278.319473</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1004049674088435</v>
+        <v>0.1315378052651268</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0464165852434723</v>
+        <v>0.04234394388787306</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2446,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4491584859.556615</v>
+        <v>2929941859.670366</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1142177470119469</v>
+        <v>0.1768226777568837</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02101168714519068</v>
+        <v>0.02400132842925623</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>147</v>
+      </c>
+      <c r="J57" t="n">
+        <v>353</v>
+      </c>
+      <c r="K57" t="n">
+        <v>41.98623508110452</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2489,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1632226557.636572</v>
+        <v>1375428279.072534</v>
       </c>
       <c r="F58" t="n">
-        <v>0.190636749686899</v>
+        <v>0.1479079996036315</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03634260651099864</v>
+        <v>0.03536949953463177</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2524,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4699858610.517787</v>
+        <v>3534127903.159733</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08207275099615925</v>
+        <v>0.1045964681079519</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04730645977680325</v>
+        <v>0.0382679464781073</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>171</v>
+      </c>
+      <c r="J59" t="n">
+        <v>353</v>
+      </c>
+      <c r="K59" t="n">
+        <v>59.28987702370276</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2561,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2499029357.943407</v>
+        <v>3758101001.864923</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170678878431333</v>
+        <v>0.1925986590428692</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02200824597989449</v>
+        <v>0.02122972852894052</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>62</v>
+      </c>
+      <c r="J60" t="n">
+        <v>354</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2590,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3407541084.454464</v>
+        <v>3097876718.51057</v>
       </c>
       <c r="F61" t="n">
-        <v>0.156543079319875</v>
+        <v>0.1704885654880443</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02904408148312483</v>
+        <v>0.02092876578410167</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2625,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1458247645.518866</v>
+        <v>1914327210.984156</v>
       </c>
       <c r="F62" t="n">
-        <v>0.122114093988181</v>
+        <v>0.154059681388256</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04161953413379439</v>
+        <v>0.03927822540644035</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2666,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4771993482.297256</v>
+        <v>5299902228.278963</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09902513706244</v>
+        <v>0.08210207988583812</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04412774982604041</v>
+        <v>0.03745247241440257</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>173</v>
+      </c>
+      <c r="J63" t="n">
+        <v>354</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2701,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3403493661.816404</v>
+        <v>3348133217.065649</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1253537478733402</v>
+        <v>0.1387639389225424</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02392791870744437</v>
+        <v>0.02996576634637904</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>175</v>
+      </c>
+      <c r="J64" t="n">
+        <v>353</v>
+      </c>
+      <c r="K64" t="n">
+        <v>52.80765443371677</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2732,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4819953199.173397</v>
+        <v>4502418210.355916</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1225434518093725</v>
+        <v>0.139939660075756</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02281097341494452</v>
+        <v>0.01985674428521964</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>271</v>
+      </c>
+      <c r="J65" t="n">
+        <v>354</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2773,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4125241657.052089</v>
+        <v>4887079662.416734</v>
       </c>
       <c r="F66" t="n">
-        <v>0.139847645499586</v>
+        <v>0.1273919217380413</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0409351435582513</v>
+        <v>0.04860252298414262</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>175</v>
+      </c>
+      <c r="J66" t="n">
+        <v>353</v>
+      </c>
+      <c r="K66" t="n">
+        <v>59.01850543002231</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2804,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2816832151.084783</v>
+        <v>2968193905.72742</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09084893495608171</v>
+        <v>0.07856983337918685</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03405894474927654</v>
+        <v>0.04469332338796982</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2839,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3738853780.839468</v>
+        <v>4967037117.215111</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1398253808325975</v>
+        <v>0.1150300721051808</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05026974311222404</v>
+        <v>0.03830868970249558</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>192</v>
+      </c>
+      <c r="J68" t="n">
+        <v>354</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2176969440.087945</v>
+        <v>1974278532.138417</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1188341008449524</v>
+        <v>0.1498998908623426</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04075475429613423</v>
+        <v>0.03960878869589839</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3556087971.24729</v>
+        <v>2685808880.431658</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09113914784170613</v>
+        <v>0.08501699573481598</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04458934107466439</v>
+        <v>0.04113471386871741</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2944,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3930454046.761139</v>
+        <v>4581436327.119857</v>
       </c>
       <c r="F71" t="n">
-        <v>0.134480026152327</v>
+        <v>0.137413905304996</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02742393284068015</v>
+        <v>0.02569690310099815</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>258</v>
+      </c>
+      <c r="J71" t="n">
+        <v>353</v>
+      </c>
+      <c r="K71" t="n">
+        <v>61.28573555856293</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2987,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1614773027.743028</v>
+        <v>2204617642.810701</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1084361246263716</v>
+        <v>0.09292613154097368</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03680784119448236</v>
+        <v>0.03260062298975851</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2791564417.556668</v>
+        <v>2406380285.396763</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06960299973568045</v>
+        <v>0.09984215976602069</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04074040824557298</v>
+        <v>0.04639265898526738</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3057,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3739399684.168048</v>
+        <v>3245826289.409991</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1526751063694777</v>
+        <v>0.1608383819299245</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03391701014750503</v>
+        <v>0.02944182178090888</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>97</v>
+      </c>
+      <c r="J74" t="n">
+        <v>353</v>
+      </c>
+      <c r="K74" t="n">
+        <v>62.52022784853637</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3088,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1969019066.786413</v>
+        <v>2138322784.784339</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1552581874951749</v>
+        <v>0.1439149181787244</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02706354589075115</v>
+        <v>0.02483452401624477</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3123,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3257164846.365652</v>
+        <v>4095761205.144206</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09585326863956822</v>
+        <v>0.1183247940925054</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02203820432009528</v>
+        <v>0.02777133267978218</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>167</v>
+      </c>
+      <c r="J76" t="n">
+        <v>354</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3158,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1613173950.25432</v>
+        <v>1738805964.996549</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1770416677495669</v>
+        <v>0.1864817737940196</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02827335042710082</v>
+        <v>0.02698685229540345</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3193,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4561723067.235487</v>
+        <v>3854776690.412574</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1241617685483739</v>
+        <v>0.123658912752875</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04029190150852913</v>
+        <v>0.04554886536515836</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>176</v>
+      </c>
+      <c r="J78" t="n">
+        <v>354</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1887492480.716723</v>
+        <v>1498917174.577725</v>
       </c>
       <c r="F79" t="n">
-        <v>0.112077628254588</v>
+        <v>0.1217115521382036</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02590591620679619</v>
+        <v>0.03600466006493655</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3263,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5013853819.186213</v>
+        <v>3580360118.320426</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08387192031690154</v>
+        <v>0.06862154182863044</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02437009144666205</v>
+        <v>0.02574592369279859</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>173</v>
+      </c>
+      <c r="J80" t="n">
+        <v>353</v>
+      </c>
+      <c r="K80" t="n">
+        <v>48.26280259433597</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3300,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3762735920.315145</v>
+        <v>3934652771.511221</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0972083236219707</v>
+        <v>0.1079173352630742</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02787275976556168</v>
+        <v>0.03027916747071627</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>163</v>
+      </c>
+      <c r="J81" t="n">
+        <v>354</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3341,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4328080749.971245</v>
+        <v>5647939495.085114</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1539729248542068</v>
+        <v>0.1601235496097324</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01892906770302596</v>
+        <v>0.02958696538552712</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>250</v>
+      </c>
+      <c r="J82" t="n">
+        <v>354</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2456772798.190293</v>
+        <v>1548373994.943582</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1419628183609955</v>
+        <v>0.09610920158085588</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0349331536608624</v>
+        <v>0.03896687492153045</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2337605900.213067</v>
+        <v>1789057640.234362</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07754748591251864</v>
+        <v>0.07810116217351132</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03367760811596197</v>
+        <v>0.04181055772840378</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3446,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3371740744.21782</v>
+        <v>2298690815.81946</v>
       </c>
       <c r="F85" t="n">
-        <v>0.112789555669575</v>
+        <v>0.1745468640549951</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05518463690105852</v>
+        <v>0.05061075496244483</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3481,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2481995799.150588</v>
+        <v>2186960375.220568</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1464450733836759</v>
+        <v>0.134515970376571</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0178565101751746</v>
+        <v>0.02540627800328634</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1417061728.482082</v>
+        <v>1353435314.085702</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1173216055013781</v>
+        <v>0.1874197900668095</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04210912664379572</v>
+        <v>0.04136579886005744</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2951601230.438682</v>
+        <v>2981888397.29356</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1279592566854492</v>
+        <v>0.1652212585655513</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03089218400167777</v>
+        <v>0.02910837203674749</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2625115632.585402</v>
+        <v>2587503609.726726</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1538366271568518</v>
+        <v>0.1012897009119564</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03617678107215896</v>
+        <v>0.04141622100572544</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1671291475.94069</v>
+        <v>1396669305.108522</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1000045088575653</v>
+        <v>0.0922424067564291</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0345786822813353</v>
+        <v>0.04184247897041493</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1924784934.401137</v>
+        <v>1557019190.137917</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1536133948988953</v>
+        <v>0.1440259000681549</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04926923174233851</v>
+        <v>0.05719150333908887</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2665289244.846298</v>
+        <v>2410518153.508609</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09493163852278223</v>
+        <v>0.1076000181390326</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04553445686958201</v>
+        <v>0.02920189144742715</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3726,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4996201468.91077</v>
+        <v>3957190742.344828</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1064010108005827</v>
+        <v>0.1261336243376926</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04235583213103072</v>
+        <v>0.03414169958911528</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>164</v>
+      </c>
+      <c r="J93" t="n">
+        <v>354</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1950440177.249557</v>
+        <v>1681925837.02505</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1430588771101716</v>
+        <v>0.1498623894258745</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0273123944886188</v>
+        <v>0.02812966034206102</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2354117932.692811</v>
+        <v>3141275695.9054</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1053218559032862</v>
+        <v>0.08608318819660074</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0516962338091602</v>
+        <v>0.0388960495544611</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1715079416.584961</v>
+        <v>2399776350.782352</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1202068871898424</v>
+        <v>0.1154487579827961</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04418071261541383</v>
+        <v>0.02981442190765416</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3500644181.14088</v>
+        <v>4841435694.477962</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1621133349660778</v>
+        <v>0.145569198960536</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02566282647169688</v>
+        <v>0.02833121116617828</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>182</v>
+      </c>
+      <c r="J97" t="n">
+        <v>354</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3677272185.551877</v>
+        <v>2434505639.579575</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08821741264244143</v>
+        <v>0.09185780180264408</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03139445455775272</v>
+        <v>0.022931722386753</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2065422222.741351</v>
+        <v>2674217087.701128</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1257323970072681</v>
+        <v>0.09748568029156758</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03052946635571281</v>
+        <v>0.02494515342249598</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3384245087.893506</v>
+        <v>4813857739.585189</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1382554870756517</v>
+        <v>0.1276512550177342</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02480784718088501</v>
+        <v>0.02190166362414345</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>160</v>
+      </c>
+      <c r="J100" t="n">
+        <v>354</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2227142225.588072</v>
+        <v>2827430371.426064</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1524965160787794</v>
+        <v>0.1803907134711638</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04751997992917389</v>
+        <v>0.04474251061027688</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
